--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/42/word_level_predictions_42.xlsx
@@ -1201,343 +1201,343 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Wrong_Tag_B_as_I</t>
         </is>
       </c>
     </row>
@@ -4529,83 +4529,83 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>8</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>Strong Interference Now Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Now</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>2</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B80" s="2" t="inlineStr">
-        <is>
-          <t>Strong Interference Now Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C80" s="2" t="inlineStr">
-        <is>
-          <t>Now</t>
-        </is>
-      </c>
-      <c r="D80" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E80" s="2" t="inlineStr">
+      <c r="F80" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" s="2" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G80" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J80" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K80" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L80" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="G80" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" t="b">
+        <v>1</v>
+      </c>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K80" t="b">
+        <v>1</v>
+      </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
+      <c r="A158" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B158" t="inlineStr">
+      <c r="B158" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" t="inlineStr">
+      <c r="C158" s="2" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" t="n">
+      <c r="D158" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E158" t="inlineStr">
+      <c r="E158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" t="inlineStr">
+      <c r="F158" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G158" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" t="b">
-        <v>1</v>
-      </c>
-      <c r="J158" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K158" t="b">
-        <v>1</v>
-      </c>
-      <c r="L158" t="inlineStr">
+      <c r="G158" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J158" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K158" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L158" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
+      <c r="A159" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B159" t="inlineStr">
+      <c r="B159" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="C159" s="2" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" t="n">
+      <c r="D159" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" t="b">
-        <v>1</v>
-      </c>
-      <c r="J159" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K159" t="b">
-        <v>1</v>
-      </c>
-      <c r="L159" t="inlineStr">
+      <c r="E159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J159" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K159" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L159" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
+      <c r="A160" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B160" t="inlineStr">
+      <c r="B160" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" t="inlineStr">
+      <c r="C160" s="2" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" t="n">
+      <c r="D160" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" t="b">
-        <v>1</v>
-      </c>
-      <c r="J160" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K160" t="b">
-        <v>1</v>
-      </c>
-      <c r="L160" t="inlineStr">
+      <c r="E160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J160" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K160" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L160" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
+      <c r="A161" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B161" t="inlineStr">
+      <c r="B161" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="C161" s="2" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" t="n">
+      <c r="D161" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" t="b">
-        <v>1</v>
-      </c>
-      <c r="J161" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K161" t="b">
-        <v>1</v>
-      </c>
-      <c r="L161" t="inlineStr">
+      <c r="E161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J161" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K161" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L161" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
+      <c r="A162" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B162" t="inlineStr">
+      <c r="B162" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="C162" s="2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" t="n">
+      <c r="D162" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G162" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" t="b">
-        <v>1</v>
-      </c>
-      <c r="J162" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K162" t="b">
-        <v>1</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E162" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G162" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J162" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K162" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L162" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
+      <c r="A163" s="2" t="n">
         <v>15</v>
       </c>
-      <c r="B163" t="inlineStr">
+      <c r="B163" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" t="inlineStr">
+      <c r="C163" s="2" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" t="n">
+      <c r="D163" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E163" t="inlineStr">
+      <c r="E163" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G163" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" t="b">
-        <v>1</v>
-      </c>
-      <c r="J163" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K163" t="b">
-        <v>1</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F163" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G163" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J163" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K163" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L163" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" s="2" t="n">
+      <c r="A168" t="n">
         <v>16</v>
       </c>
-      <c r="B168" s="2" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" s="2" t="inlineStr">
+      <c r="C168" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" s="2" t="n">
+      <c r="D168" t="n">
         <v>3</v>
       </c>
-      <c r="E168" s="2" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" s="2" t="inlineStr">
+      <c r="F168" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G168" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J168" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K168" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L168" s="2" t="inlineStr">
+      <c r="G168" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" t="b">
+        <v>1</v>
+      </c>
+      <c r="J168" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K168" t="b">
+        <v>1</v>
+      </c>
+      <c r="L168" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" s="2" t="n">
+      <c r="A169" t="n">
         <v>16</v>
       </c>
-      <c r="B169" s="2" t="inlineStr">
+      <c r="B169" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" s="2" t="inlineStr">
+      <c r="C169" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" s="2" t="n">
+      <c r="D169" t="n">
         <v>4</v>
       </c>
-      <c r="E169" s="2" t="inlineStr">
+      <c r="E169" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" s="2" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G169" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J169" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K169" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L169" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G169" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" t="b">
+        <v>1</v>
+      </c>
+      <c r="J169" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K169" t="b">
+        <v>1</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -18130,260 +18130,260 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" t="n">
+      <c r="A341" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B341" t="inlineStr">
+      <c r="B341" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" t="inlineStr">
+      <c r="C341" s="2" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" t="n">
+      <c r="D341" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E341" t="inlineStr">
+      <c r="E341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr">
+      <c r="F341" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" t="b">
-        <v>1</v>
-      </c>
-      <c r="J341" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K341" t="b">
-        <v>1</v>
-      </c>
-      <c r="L341" t="inlineStr">
+      <c r="G341" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J341" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K341" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L341" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" t="n">
+      <c r="A342" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B342" t="inlineStr">
+      <c r="B342" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" t="inlineStr">
+      <c r="C342" s="2" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" t="n">
+      <c r="D342" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E342" t="inlineStr">
+      <c r="E342" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G342" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" t="b">
-        <v>1</v>
-      </c>
-      <c r="J342" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K342" t="b">
-        <v>1</v>
-      </c>
-      <c r="L342" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F342" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G342" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J342" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K342" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L342" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" t="n">
+      <c r="A343" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B343" t="inlineStr">
+      <c r="B343" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" t="inlineStr">
+      <c r="C343" s="2" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" t="n">
+      <c r="D343" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E343" t="inlineStr">
+      <c r="E343" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G343" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" t="b">
-        <v>1</v>
-      </c>
-      <c r="J343" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K343" t="b">
-        <v>1</v>
-      </c>
-      <c r="L343" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F343" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G343" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J343" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K343" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L343" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" t="n">
+      <c r="A344" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B344" t="inlineStr">
+      <c r="B344" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" t="inlineStr">
+      <c r="C344" s="2" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" t="n">
+      <c r="D344" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" t="b">
-        <v>1</v>
-      </c>
-      <c r="J344" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K344" t="b">
-        <v>1</v>
-      </c>
-      <c r="L344" t="inlineStr">
+      <c r="E344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J344" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K344" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L344" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" t="n">
+      <c r="A345" s="2" t="n">
         <v>30</v>
       </c>
-      <c r="B345" t="inlineStr">
+      <c r="B345" s="2" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" t="inlineStr">
+      <c r="C345" s="2" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" t="n">
+      <c r="D345" s="2" t="n">
         <v>6</v>
       </c>
-      <c r="E345" t="inlineStr">
+      <c r="E345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" t="inlineStr">
+      <c r="F345" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" t="b">
-        <v>1</v>
-      </c>
-      <c r="J345" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K345" t="b">
-        <v>1</v>
-      </c>
-      <c r="L345" t="inlineStr">
+      <c r="G345" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J345" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K345" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L345" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24162,312 +24162,312 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" t="n">
+      <c r="A457" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B457" t="inlineStr">
+      <c r="B457" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" t="inlineStr">
+      <c r="C457" s="2" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" t="n">
+      <c r="D457" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E457" t="inlineStr">
+      <c r="E457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" t="inlineStr">
+      <c r="F457" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" t="b">
-        <v>1</v>
-      </c>
-      <c r="J457" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K457" t="b">
-        <v>1</v>
-      </c>
-      <c r="L457" t="inlineStr">
+      <c r="G457" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J457" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K457" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L457" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" t="n">
+      <c r="A458" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B458" t="inlineStr">
+      <c r="B458" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" t="inlineStr">
+      <c r="C458" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" t="inlineStr">
+      <c r="D458" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F458" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J458" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K458" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L458" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" t="n">
+      <c r="A459" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B459" t="inlineStr">
+      <c r="B459" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" t="inlineStr">
+      <c r="C459" s="2" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" t="n">
+      <c r="D459" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E459" t="inlineStr">
+      <c r="E459" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" t="n">
+      <c r="A460" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B460" t="inlineStr">
+      <c r="B460" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" t="inlineStr">
+      <c r="C460" s="2" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D460" t="n">
+      <c r="D460" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" t="b">
-        <v>1</v>
-      </c>
-      <c r="J460" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K460" t="b">
-        <v>1</v>
-      </c>
-      <c r="L460" t="inlineStr">
+      <c r="E460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J460" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K460" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L460" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" t="n">
+      <c r="A461" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B461" t="inlineStr">
+      <c r="B461" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C461" t="inlineStr">
+      <c r="C461" s="2" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D461" t="n">
+      <c r="D461" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" t="b">
-        <v>1</v>
-      </c>
-      <c r="J461" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K461" t="b">
-        <v>1</v>
-      </c>
-      <c r="L461" t="inlineStr">
+      <c r="E461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J461" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K461" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L461" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" t="n">
+      <c r="A462" s="2" t="n">
         <v>42</v>
       </c>
-      <c r="B462" t="inlineStr">
+      <c r="B462" s="2" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C462" t="inlineStr">
+      <c r="C462" s="2" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" t="n">
+      <c r="D462" s="2" t="n">
         <v>5</v>
       </c>
-      <c r="E462" t="inlineStr">
+      <c r="E462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" t="inlineStr">
+      <c r="F462" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" t="b">
-        <v>1</v>
-      </c>
-      <c r="J462" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K462" t="b">
-        <v>1</v>
-      </c>
-      <c r="L462" t="inlineStr">
+      <c r="G462" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J462" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K462" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L462" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="F496" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G496" s="2" t="b">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="L496" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/42/word_level_predictions_42.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-20_remove/rem2/42/word_level_predictions_42.xlsx
@@ -1201,343 +1201,343 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -3073,7 +3073,7 @@
       </c>
       <c r="F51" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G51" s="2" t="b">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L51" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Tag_B_as_I</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -4529,7 +4529,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G79" t="b">
@@ -4553,59 +4553,59 @@
       </c>
       <c r="L79" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
+      <c r="A80" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B80" t="inlineStr">
+      <c r="B80" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
+      <c r="C80" s="2" t="inlineStr">
         <is>
           <t>Now</t>
         </is>
       </c>
-      <c r="D80" t="n">
+      <c r="D80" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E80" t="inlineStr">
+      <c r="E80" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G80" t="b">
-        <v>1</v>
-      </c>
-      <c r="H80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I80" t="b">
-        <v>1</v>
-      </c>
-      <c r="J80" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K80" t="b">
-        <v>1</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F80" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G80" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H80" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J80" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K80" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L80" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -8614,314 +8614,314 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" s="2" t="n">
+      <c r="A158" t="n">
         <v>15</v>
       </c>
-      <c r="B158" s="2" t="inlineStr">
+      <c r="B158" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C158" s="2" t="inlineStr">
+      <c r="C158" t="inlineStr">
         <is>
           <t>Be</t>
         </is>
       </c>
-      <c r="D158" s="2" t="n">
+      <c r="D158" t="n">
         <v>3</v>
       </c>
-      <c r="E158" s="2" t="inlineStr">
+      <c r="E158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F158" s="2" t="inlineStr">
+      <c r="F158" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="G158" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H158" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J158" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K158" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L158" s="2" t="inlineStr">
+      <c r="G158" t="b">
+        <v>1</v>
+      </c>
+      <c r="H158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I158" t="b">
+        <v>1</v>
+      </c>
+      <c r="J158" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K158" t="b">
+        <v>1</v>
+      </c>
+      <c r="L158" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" s="2" t="n">
+      <c r="A159" t="n">
         <v>15</v>
       </c>
-      <c r="B159" s="2" t="inlineStr">
+      <c r="B159" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C159" s="2" t="inlineStr">
+      <c r="C159" t="inlineStr">
         <is>
           <t>careful</t>
         </is>
       </c>
-      <c r="D159" s="2" t="n">
+      <c r="D159" t="n">
         <v>4</v>
       </c>
-      <c r="E159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F159" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G159" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H159" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J159" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K159" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L159" s="2" t="inlineStr">
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G159" t="b">
+        <v>1</v>
+      </c>
+      <c r="H159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I159" t="b">
+        <v>1</v>
+      </c>
+      <c r="J159" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K159" t="b">
+        <v>1</v>
+      </c>
+      <c r="L159" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="n">
+      <c r="A160" t="n">
         <v>15</v>
       </c>
-      <c r="B160" s="2" t="inlineStr">
+      <c r="B160" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C160" s="2" t="inlineStr">
+      <c r="C160" t="inlineStr">
         <is>
           <t>when</t>
         </is>
       </c>
-      <c r="D160" s="2" t="n">
+      <c r="D160" t="n">
         <v>5</v>
       </c>
-      <c r="E160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F160" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G160" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H160" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J160" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K160" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L160" s="2" t="inlineStr">
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G160" t="b">
+        <v>1</v>
+      </c>
+      <c r="H160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I160" t="b">
+        <v>1</v>
+      </c>
+      <c r="J160" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K160" t="b">
+        <v>1</v>
+      </c>
+      <c r="L160" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="2" t="n">
+      <c r="A161" t="n">
         <v>15</v>
       </c>
-      <c r="B161" s="2" t="inlineStr">
+      <c r="B161" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C161" s="2" t="inlineStr">
+      <c r="C161" t="inlineStr">
         <is>
           <t>flying</t>
         </is>
       </c>
-      <c r="D161" s="2" t="n">
+      <c r="D161" t="n">
         <v>6</v>
       </c>
-      <c r="E161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F161" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G161" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H161" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J161" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K161" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L161" s="2" t="inlineStr">
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G161" t="b">
+        <v>1</v>
+      </c>
+      <c r="H161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I161" t="b">
+        <v>1</v>
+      </c>
+      <c r="J161" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K161" t="b">
+        <v>1</v>
+      </c>
+      <c r="L161" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" s="2" t="n">
+      <c r="A162" t="n">
         <v>15</v>
       </c>
-      <c r="B162" s="2" t="inlineStr">
+      <c r="B162" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C162" s="2" t="inlineStr">
+      <c r="C162" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="D162" s="2" t="n">
+      <c r="D162" t="n">
         <v>7</v>
       </c>
-      <c r="E162" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F162" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G162" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H162" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J162" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K162" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L162" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G162" t="b">
+        <v>1</v>
+      </c>
+      <c r="H162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I162" t="b">
+        <v>1</v>
+      </c>
+      <c r="J162" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K162" t="b">
+        <v>1</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="163">
-      <c r="A163" s="2" t="n">
+      <c r="A163" t="n">
         <v>15</v>
       </c>
-      <c r="B163" s="2" t="inlineStr">
+      <c r="B163" t="inlineStr">
         <is>
           <t>Strong Interference Detected Be careful when flying long distances .</t>
         </is>
       </c>
-      <c r="C163" s="2" t="inlineStr">
+      <c r="C163" t="inlineStr">
         <is>
           <t>distances</t>
         </is>
       </c>
-      <c r="D163" s="2" t="n">
+      <c r="D163" t="n">
         <v>8</v>
       </c>
-      <c r="E163" s="2" t="inlineStr">
+      <c r="E163" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F163" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G163" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H163" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J163" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K163" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L163" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G163" t="b">
+        <v>1</v>
+      </c>
+      <c r="H163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I163" t="b">
+        <v>1</v>
+      </c>
+      <c r="J163" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K163" t="b">
+        <v>1</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -9134,106 +9134,106 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
+      <c r="A168" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B168" t="inlineStr">
+      <c r="B168" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C168" t="inlineStr">
+      <c r="C168" s="2" t="inlineStr">
         <is>
           <t>Hardware</t>
         </is>
       </c>
-      <c r="D168" t="n">
+      <c r="D168" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E168" t="inlineStr">
+      <c r="E168" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F168" t="inlineStr">
+      <c r="F168" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G168" t="b">
-        <v>1</v>
-      </c>
-      <c r="H168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I168" t="b">
-        <v>1</v>
-      </c>
-      <c r="J168" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K168" t="b">
-        <v>1</v>
-      </c>
-      <c r="L168" t="inlineStr">
+      <c r="G168" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H168" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J168" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K168" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L168" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
+      <c r="A169" s="2" t="n">
         <v>16</v>
       </c>
-      <c r="B169" t="inlineStr">
+      <c r="B169" s="2" t="inlineStr">
         <is>
           <t>Camera sensor error Hardware malfunction Contact DJI Support to arrange for repairs .</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="C169" s="2" t="inlineStr">
         <is>
           <t>malfunction</t>
         </is>
       </c>
-      <c r="D169" t="n">
+      <c r="D169" s="2" t="n">
         <v>4</v>
       </c>
-      <c r="E169" t="inlineStr">
+      <c r="E169" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F169" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G169" t="b">
-        <v>1</v>
-      </c>
-      <c r="H169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I169" t="b">
-        <v>1</v>
-      </c>
-      <c r="J169" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K169" t="b">
-        <v>1</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F169" s="2" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G169" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H169" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J169" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K169" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L169" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -18130,260 +18130,260 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="2" t="n">
+      <c r="A341" t="n">
         <v>30</v>
       </c>
-      <c r="B341" s="2" t="inlineStr">
+      <c r="B341" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C341" s="2" t="inlineStr">
+      <c r="C341" t="inlineStr">
         <is>
           <t>Cannot</t>
         </is>
       </c>
-      <c r="D341" s="2" t="n">
+      <c r="D341" t="n">
         <v>2</v>
       </c>
-      <c r="E341" s="2" t="inlineStr">
+      <c r="E341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F341" s="2" t="inlineStr">
+      <c r="F341" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G341" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H341" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J341" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K341" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L341" s="2" t="inlineStr">
+      <c r="G341" t="b">
+        <v>1</v>
+      </c>
+      <c r="H341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I341" t="b">
+        <v>1</v>
+      </c>
+      <c r="J341" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K341" t="b">
+        <v>1</v>
+      </c>
+      <c r="L341" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="342">
-      <c r="A342" s="2" t="n">
+      <c r="A342" t="n">
         <v>30</v>
       </c>
-      <c r="B342" s="2" t="inlineStr">
+      <c r="B342" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C342" s="2" t="inlineStr">
+      <c r="C342" t="inlineStr">
         <is>
           <t>Takeoff</t>
         </is>
       </c>
-      <c r="D342" s="2" t="n">
+      <c r="D342" t="n">
         <v>3</v>
       </c>
-      <c r="E342" s="2" t="inlineStr">
+      <c r="E342" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F342" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G342" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H342" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J342" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K342" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L342" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G342" t="b">
+        <v>1</v>
+      </c>
+      <c r="H342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I342" t="b">
+        <v>1</v>
+      </c>
+      <c r="J342" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K342" t="b">
+        <v>1</v>
+      </c>
+      <c r="L342" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="2" t="n">
+      <c r="A343" t="n">
         <v>30</v>
       </c>
-      <c r="B343" s="2" t="inlineStr">
+      <c r="B343" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C343" s="2" t="inlineStr">
+      <c r="C343" t="inlineStr">
         <is>
           <t>Contact</t>
         </is>
       </c>
-      <c r="D343" s="2" t="n">
+      <c r="D343" t="n">
         <v>4</v>
       </c>
-      <c r="E343" s="2" t="inlineStr">
+      <c r="E343" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F343" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G343" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H343" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J343" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K343" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L343" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F343" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G343" t="b">
+        <v>1</v>
+      </c>
+      <c r="H343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I343" t="b">
+        <v>1</v>
+      </c>
+      <c r="J343" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K343" t="b">
+        <v>1</v>
+      </c>
+      <c r="L343" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="344">
-      <c r="A344" s="2" t="n">
+      <c r="A344" t="n">
         <v>30</v>
       </c>
-      <c r="B344" s="2" t="inlineStr">
+      <c r="B344" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C344" s="2" t="inlineStr">
+      <c r="C344" t="inlineStr">
         <is>
           <t>DJI</t>
         </is>
       </c>
-      <c r="D344" s="2" t="n">
+      <c r="D344" t="n">
         <v>5</v>
       </c>
-      <c r="E344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F344" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G344" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H344" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J344" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K344" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L344" s="2" t="inlineStr">
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F344" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G344" t="b">
+        <v>1</v>
+      </c>
+      <c r="H344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I344" t="b">
+        <v>1</v>
+      </c>
+      <c r="J344" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K344" t="b">
+        <v>1</v>
+      </c>
+      <c r="L344" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="345">
-      <c r="A345" s="2" t="n">
+      <c r="A345" t="n">
         <v>30</v>
       </c>
-      <c r="B345" s="2" t="inlineStr">
+      <c r="B345" t="inlineStr">
         <is>
           <t>Unknown Error Cannot Takeoff Contact DJI support .</t>
         </is>
       </c>
-      <c r="C345" s="2" t="inlineStr">
+      <c r="C345" t="inlineStr">
         <is>
           <t>support</t>
         </is>
       </c>
-      <c r="D345" s="2" t="n">
+      <c r="D345" t="n">
         <v>6</v>
       </c>
-      <c r="E345" s="2" t="inlineStr">
+      <c r="E345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F345" s="2" t="inlineStr">
+      <c r="F345" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G345" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H345" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J345" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K345" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L345" s="2" t="inlineStr">
+      <c r="G345" t="b">
+        <v>1</v>
+      </c>
+      <c r="H345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I345" t="b">
+        <v>1</v>
+      </c>
+      <c r="J345" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K345" t="b">
+        <v>1</v>
+      </c>
+      <c r="L345" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -24162,312 +24162,312 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="2" t="n">
+      <c r="A457" t="n">
         <v>42</v>
       </c>
-      <c r="B457" s="2" t="inlineStr">
+      <c r="B457" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C457" s="2" t="inlineStr">
+      <c r="C457" t="inlineStr">
         <is>
           <t>Compass</t>
         </is>
       </c>
-      <c r="D457" s="2" t="n">
+      <c r="D457" t="n">
         <v>0</v>
       </c>
-      <c r="E457" s="2" t="inlineStr">
+      <c r="E457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F457" s="2" t="inlineStr">
+      <c r="F457" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G457" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H457" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J457" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K457" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L457" s="2" t="inlineStr">
+      <c r="G457" t="b">
+        <v>1</v>
+      </c>
+      <c r="H457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I457" t="b">
+        <v>1</v>
+      </c>
+      <c r="J457" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K457" t="b">
+        <v>1</v>
+      </c>
+      <c r="L457" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="458">
-      <c r="A458" s="2" t="n">
+      <c r="A458" t="n">
         <v>42</v>
       </c>
-      <c r="B458" s="2" t="inlineStr">
+      <c r="B458" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C458" s="2" t="inlineStr">
+      <c r="C458" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D458" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E458" s="2" t="inlineStr">
+      <c r="D458" t="n">
+        <v>1</v>
+      </c>
+      <c r="E458" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F458" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G458" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J458" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K458" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L458" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F458" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="460">
-      <c r="A460" s="2" t="n">
+      <c r="A460" t="n">
         <v>42</v>
       </c>
-      <c r="B460" s="2" t="inlineStr">
+      <c r="B460" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C460" s="2" t="inlineStr">
+      <c r="C460" t="inlineStr">
         <is>
           <t>Max</t>
         </is>
       </c>
-      <c r="D460" s="2" t="n">
+      <c r="D460" t="n">
         <v>3</v>
       </c>
-      <c r="E460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F460" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G460" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H460" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J460" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K460" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L460" s="2" t="inlineStr">
+      <c r="E460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F460" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G460" t="b">
+        <v>1</v>
+      </c>
+      <c r="H460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I460" t="b">
+        <v>1</v>
+      </c>
+      <c r="J460" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K460" t="b">
+        <v>1</v>
+      </c>
+      <c r="L460" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="461">
-      <c r="A461" s="2" t="n">
+      <c r="A461" t="n">
         <v>42</v>
       </c>
-      <c r="B461" s="2" t="inlineStr">
+      <c r="B461" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C461" s="2" t="inlineStr">
+      <c r="C461" t="inlineStr">
         <is>
           <t>Altitude</t>
         </is>
       </c>
-      <c r="D461" s="2" t="n">
+      <c r="D461" t="n">
         <v>4</v>
       </c>
-      <c r="E461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F461" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G461" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H461" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J461" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K461" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L461" s="2" t="inlineStr">
+      <c r="E461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F461" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G461" t="b">
+        <v>1</v>
+      </c>
+      <c r="H461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I461" t="b">
+        <v>1</v>
+      </c>
+      <c r="J461" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K461" t="b">
+        <v>1</v>
+      </c>
+      <c r="L461" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="2" t="n">
+      <c r="A462" t="n">
         <v>42</v>
       </c>
-      <c r="B462" s="2" t="inlineStr">
+      <c r="B462" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C462" s="2" t="inlineStr">
+      <c r="C462" t="inlineStr">
         <is>
           <t>98ft</t>
         </is>
       </c>
-      <c r="D462" s="2" t="n">
+      <c r="D462" t="n">
         <v>5</v>
       </c>
-      <c r="E462" s="2" t="inlineStr">
+      <c r="E462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F462" s="2" t="inlineStr">
+      <c r="F462" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G462" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H462" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J462" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K462" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L462" s="2" t="inlineStr">
+      <c r="G462" t="b">
+        <v>1</v>
+      </c>
+      <c r="H462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I462" t="b">
+        <v>1</v>
+      </c>
+      <c r="J462" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K462" t="b">
+        <v>1</v>
+      </c>
+      <c r="L462" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -26213,7 +26213,7 @@
       </c>
       <c r="F496" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G496" s="2" t="b">
@@ -26237,7 +26237,7 @@
       </c>
       <c r="L496" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
